--- a/exploratory_data_analysis/aula1/5_Modulo 3 – EDA – Sessão 1-  Respostas Questões.xlsx
+++ b/exploratory_data_analysis/aula1/5_Modulo 3 – EDA – Sessão 1-  Respostas Questões.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://clasquinsa-my.sharepoint.com/personal/andreia_campos_clasquin_com/Documents/Desktop/datascience/datascience_course/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://clasquinsa-my.sharepoint.com/personal/andreia_campos_clasquin_com/Documents/Desktop/datascience/datascience_course/exploratory_data_analysis/aula1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="8_{5A5AFE05-A293-4D30-A45D-BE7F8F1987C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8DECCF87-FBEF-45A2-A35C-A4A37336CDC0}"/>
+  <xr:revisionPtr revIDLastSave="32" documentId="8_{5A5AFE05-A293-4D30-A45D-BE7F8F1987C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{90A9B6FE-6D2C-4DB9-91BD-837C043BD7C9}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7155147E-C2FE-4588-82C4-C338199DD2AB}"/>
   </bookViews>
@@ -464,6 +464,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -513,9 +516,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -855,29 +855,31 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14:F15"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="118.42578125" style="2" customWidth="1"/>
-    <col min="3" max="5" width="12.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="78.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="51.85546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="23.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="23.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="25.140625" style="1" customWidth="1"/>
     <col min="7" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="15" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17"/>
+      <c r="B1" s="18"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="21"/>
+      <c r="B2" s="22"/>
     </row>
     <row r="3" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
@@ -888,18 +890,18 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="21"/>
     </row>
     <row r="5" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="23"/>
+      <c r="B5" s="24"/>
       <c r="C5" s="3" t="s">
         <v>5</v>
       </c>
@@ -913,7 +915,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A6" s="16">
         <v>1</v>
       </c>
@@ -941,7 +943,7 @@
       <c r="E7" s="7"/>
       <c r="F7" s="8"/>
     </row>
-    <row r="8" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="63" x14ac:dyDescent="0.25">
       <c r="A8" s="14">
         <v>3</v>
       </c>
@@ -971,7 +973,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A10" s="14">
         <v>5</v>
       </c>
@@ -985,7 +987,7 @@
       <c r="E10" s="7"/>
       <c r="F10" s="8"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A11" s="14">
         <v>6</v>
       </c>
@@ -999,7 +1001,7 @@
       </c>
       <c r="F11" s="8"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A12" s="14">
         <v>7</v>
       </c>
@@ -1013,7 +1015,7 @@
       <c r="E12" s="7"/>
       <c r="F12" s="8"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A13" s="14">
         <v>8</v>
       </c>
@@ -1028,32 +1030,32 @@
       <c r="F13" s="8"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="26">
+      <c r="A14" s="27">
         <v>9</v>
       </c>
-      <c r="B14" s="24" t="s">
+      <c r="B14" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="28" t="s">
+      <c r="C14" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="29"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="30"/>
-    </row>
-    <row r="15" spans="1:6" ht="207.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="27"/>
-      <c r="B15" s="25"/>
-      <c r="C15" s="31"/>
-      <c r="D15" s="32"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="33"/>
-    </row>
-    <row r="16" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C16" s="34"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="34"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="31"/>
+    </row>
+    <row r="15" spans="1:6" ht="243" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="28"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="34"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
     </row>
     <row r="17" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
